--- a/data/Структура и динамика популяционных группировок (Общая экология 2023)(1-103).xlsx
+++ b/data/Структура и динамика популяционных группировок (Общая экология 2023)(1-103).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9144"/>
+    <workbookView windowWidth="22188" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
   <si>
     <t>Почта</t>
   </si>
@@ -641,6 +641,30 @@
   </si>
   <si>
     <t>Илья Шушпанов</t>
+  </si>
+  <si>
+    <t>st123832@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Елизавета Стародубова</t>
+  </si>
+  <si>
+    <t>st123859@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Екатерина Галкина</t>
+  </si>
+  <si>
+    <t>st123950@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Владислава Ягодская</t>
+  </si>
+  <si>
+    <t>st123831@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>София Дмитровская</t>
   </si>
 </sst>
 </file>
@@ -1116,26 +1140,26 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1259,9 +1283,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1335,8 +1360,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C104" totalsRowShown="0">
-  <autoFilter ref="A1:C104"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C108" totalsRowShown="0">
+  <autoFilter ref="A1:C108"/>
   <tableColumns count="3">
     <tableColumn id="4" name="Почта" dataDxfId="0"/>
     <tableColumn id="5" name="Имя" dataDxfId="1"/>
@@ -1604,10 +1629,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2759,6 +2784,50 @@
         <v>16</v>
       </c>
     </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C106" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C107" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C108" s="2">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
